--- a/experiment result cnn/256_0.2_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/256_0.2_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004706245056840935</v>
+        <v>0.0004403279993604077</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009790747919139742</v>
+        <v>0.001383673440031646</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002136545842222253</v>
+        <v>0.002606267522418528</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008324137986994468</v>
+        <v>0.0002802199995959173</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007055953186290177</v>
+        <v>0.0007407419724394822</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01619641451737452</v>
+        <v>0.0005404579952407575</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006674017906141171</v>
+        <v>8.001199999927973e-05</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01054907328347809</v>
+        <v>0.0003802299897647855</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003424670103625523</v>
+        <v>0.003762954673989973</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005609825013337755</v>
+        <v>0.00130167781865729</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003321177949338369</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01103111177974735</v>
+        <v>0.0005603039978780917</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.005088051091483988</v>
+        <v>0.0005403259815637494</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003559012572921819</v>
+        <v>0.0003202959989683069</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003858479324145732</v>
+        <v>0.005284883229742866</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.004707517717335692</v>
+        <v>0.007654680203287969</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03828006466563725</v>
+        <v>0.0003801979989322845</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01253703153177298</v>
+        <v>0.0001400299997959378</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00201436758369541</v>
+        <v>0.004122962813296467</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.007387012111604798</v>
+        <v>0.006623752116129417</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01015842123916841</v>
+        <v>0.0001000139999992397</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00739880140747806</v>
+        <v>0.0003402059997261187</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002895818917214239</v>
+        <v>0.001967372773252656</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006309453159547578</v>
+        <v>0.002124499265255067</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00719660716420054</v>
+        <v>0.002174067375208557</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0103212523686946</v>
+        <v>0.0007606799624362136</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01203782233026739</v>
+        <v>0.005307030317854267</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03583405930917612</v>
+        <v>0.001021629877513932</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01794278944043116</v>
+        <v>0.0002400799999710128</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01104522805579525</v>
+        <v>0.005479562551633487</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006581787285465057</v>
+        <v>0.00564721713743757</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04787832367639813</v>
+        <v>0.0001000179999986795</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.004049606187146883</v>
+        <v>0.005440904320265422</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00710090113611111</v>
+        <v>0.001703633278109775</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.005782436435222436</v>
+        <v>0.002106104503816652</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02900822960434062</v>
+        <v>0.001443635916323783</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01082358706737998</v>
+        <v>0.0002802519994123899</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01006460623995852</v>
+        <v>0.0009011338087363729</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.009015766702096001</v>
+        <v>0.0006808518417413795</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.001335447108775039</v>
+        <v>0.001886427090228104</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0007163316669187008</v>
+        <v>0.002185860952096783</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01197178363831989</v>
+        <v>0.0005804659991244121</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006363290901558678</v>
+        <v>0.001968173840869186</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01268157262028097</v>
+        <v>0.0002601739832762158</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.002783946941505255</v>
+        <v>0.00188383125041075</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0009526082454842562</v>
+        <v>0.002650062142011561</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03054380335306286</v>
+        <v>0.002269020428937952</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.002924652891870369</v>
+        <v>0.001523363800694084</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.004288908233543308</v>
+        <v>0.001020865963855579</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01756794851496191</v>
+        <v>0.0001400259981942565</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0273425434613099</v>
+        <v>0.02699793682125047</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0863443681247115</v>
+        <v>0.06766790700237611</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006376158615790663</v>
+        <v>0.0005204279991944764</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0111126582032662</v>
+        <v>0.0009419778151515425</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001736040414653713</v>
+        <v>0.03068889993508552</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007884723880603971</v>
+        <v>0.03434119933814907</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01444315624704855</v>
+        <v>0.02790275597679213</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0334704777662115</v>
+        <v>0.0393996850718273</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.007982190583198517</v>
+        <v>0.001163399662917849</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.003349520981434222</v>
+        <v>0.004374076737019221</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02565454105622384</v>
+        <v>0.002611643727089459</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00344313494017702</v>
+        <v>0.003936596104548104</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009577448890297997</v>
+        <v>0.007402528128151968</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01881040231030295</v>
+        <v>0.01356716680716314</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01184164579800142</v>
+        <v>0.04261043423056673</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01220708792616642</v>
+        <v>0.110728989748343</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0002502843062924255</v>
+        <v>0.009632186584933811</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0009311667666538813</v>
+        <v>0.03737697970752089</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005565335415904616</v>
+        <v>0.0131995033661058</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03949430167748678</v>
+        <v>0.01666309312836273</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02558246541490265</v>
+        <v>0.03711275354691219</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.009657288626207959</v>
+        <v>0.01581880654503929</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01066892571059776</v>
+        <v>0.2748727700817198</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02339952992886567</v>
+        <v>0.02294360168201795</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001183793156030469</v>
+        <v>0.03360348697331131</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.005445072929502366</v>
+        <v>0.02981214010731066</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01003620280026862</v>
+        <v>0.02951092092962194</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07810618675019174</v>
+        <v>0.07896789405988321</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02454717749298383</v>
+        <v>0.09819256145239889</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.004002943699871973</v>
+        <v>0.09004880353727968</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07507465099464602</v>
+        <v>0.006884884673358978</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.007649551947612307</v>
+        <v>0.005125878468116542</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.007028530549029644</v>
+        <v>0.02094476114623526</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.00248739155534389</v>
+        <v>0.06524047821890838</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001474736580537233</v>
+        <v>0.04209546533189286</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01114677560822874</v>
+        <v>0.01038873793239161</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.04427269916317905</v>
+        <v>0.0107029935100004</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03476116167789736</v>
+        <v>0.02883472446338489</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1320192897596175</v>
+        <v>0.01269494560116749</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.007246320672509925</v>
+        <v>0.02157150406594819</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02166158281170312</v>
+        <v>0.05910172940653252</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0198858954400831</v>
+        <v>0.01115721126505757</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.001065304485020869</v>
+        <v>0.007447567432014313</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01062427548264603</v>
+        <v>0.01986351375489936</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01161401612793671</v>
+        <v>0.003363520011783157</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02825123258207279</v>
+        <v>0.006881069681466377</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1397143310791178</v>
+        <v>0.02094424575509522</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.05767467709996264</v>
+        <v>0.006152833302893816</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.004037080537011347</v>
+        <v>0.1167561533545668</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01891089051861572</v>
+        <v>0.3338049370723775</v>
       </c>
     </row>
   </sheetData>
